--- a/results/mp/deberta/corona/confidence/126/stop-words-masking-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-masking-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="201">
   <si>
     <t>anchor score</t>
   </si>
@@ -61,136 +61,136 @@
     <t>risk</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>puzzle</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>contest</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>wu</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>competition</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>puzzle</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>contest</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>wu</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>competition</t>
-  </si>
-  <si>
-    <t>save</t>
   </si>
   <si>
     <t>funny</t>
@@ -982,10 +982,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1064,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -1114,7 +1114,7 @@
         <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -1164,7 +1164,7 @@
         <v>12</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K5">
         <v>0.967741935483871</v>
@@ -1214,7 +1214,7 @@
         <v>99</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K6">
         <v>0.9565217391304348</v>
@@ -1264,7 +1264,7 @@
         <v>47</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K7">
         <v>0.9491525423728814</v>
@@ -1314,7 +1314,7 @@
         <v>390</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K8">
         <v>0.9444444444444444</v>
@@ -1364,7 +1364,7 @@
         <v>62</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K9">
         <v>0.9333333333333333</v>
@@ -1393,28 +1393,28 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.0958904109589041</v>
+        <v>0.09395973154362416</v>
       </c>
       <c r="C10">
         <v>14</v>
       </c>
       <c r="D10">
-        <v>208</v>
+        <v>14</v>
       </c>
       <c r="E10">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K10">
         <v>0.9230769230769231</v>
@@ -1443,28 +1443,28 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.09395973154362416</v>
+        <v>0.01191151446398185</v>
       </c>
       <c r="C11">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D11">
-        <v>14</v>
+        <v>401</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>135</v>
+        <v>1742</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K11">
         <v>0.8846153846153846</v>
@@ -1493,28 +1493,28 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.01191151446398185</v>
+        <v>0.009523809523809525</v>
       </c>
       <c r="C12">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D12">
-        <v>401</v>
+        <v>611</v>
       </c>
       <c r="E12">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F12">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
       </c>
       <c r="H12">
-        <v>1742</v>
+        <v>2496</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K12">
         <v>0.8623853211009175</v>
@@ -1539,32 +1539,8 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.009523809523809525</v>
-      </c>
-      <c r="C13">
-        <v>24</v>
-      </c>
-      <c r="D13">
-        <v>611</v>
-      </c>
-      <c r="E13">
-        <v>0.96</v>
-      </c>
-      <c r="F13">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>2496</v>
-      </c>
       <c r="J13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K13">
         <v>0.8611111111111112</v>
@@ -1590,7 +1566,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K14">
         <v>0.8518518518518519</v>
@@ -1616,7 +1592,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K15">
         <v>0.84251968503937</v>
@@ -1642,7 +1618,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K16">
         <v>0.8376068376068376</v>
@@ -1668,7 +1644,7 @@
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K17">
         <v>0.8085106382978723</v>
@@ -1694,7 +1670,7 @@
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K18">
         <v>0.8</v>
@@ -1720,7 +1696,7 @@
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K19">
         <v>0.8</v>
@@ -1746,7 +1722,7 @@
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K20">
         <v>0.7936507936507936</v>
@@ -1772,7 +1748,7 @@
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K21">
         <v>0.7727272727272727</v>
@@ -1798,7 +1774,7 @@
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K22">
         <v>0.7658227848101266</v>
@@ -1824,7 +1800,7 @@
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K23">
         <v>0.75</v>
@@ -1850,7 +1826,7 @@
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K24">
         <v>0.7368421052631579</v>
@@ -1876,7 +1852,7 @@
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K25">
         <v>0.723404255319149</v>
@@ -1902,7 +1878,7 @@
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K26">
         <v>0.7227722772277227</v>
@@ -1928,7 +1904,7 @@
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K27">
         <v>0.6888888888888889</v>
@@ -1954,7 +1930,7 @@
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K28">
         <v>0.6888888888888889</v>
@@ -1980,111 +1956,111 @@
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K29">
-        <v>0.683982683982684</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L29">
-        <v>158</v>
+        <v>15</v>
       </c>
       <c r="M29">
-        <v>166</v>
+        <v>15</v>
       </c>
       <c r="N29">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>73</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K30">
-        <v>0.6818181818181818</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="L30">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M30">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K31">
-        <v>0.6764705882352942</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L31">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M31">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N31">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="O31">
-        <v>0.07999999999999996</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P31" t="b">
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K32">
-        <v>0.6666666666666666</v>
+        <v>0.6610878661087866</v>
       </c>
       <c r="L32">
-        <v>28</v>
+        <v>158</v>
       </c>
       <c r="M32">
-        <v>29</v>
+        <v>158</v>
       </c>
       <c r="N32">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>14</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K33">
         <v>0.6538461538461539</v>
@@ -2110,7 +2086,7 @@
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K34">
         <v>0.6470588235294118</v>
@@ -2136,7 +2112,7 @@
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K35">
         <v>0.6333333333333333</v>
@@ -2162,7 +2138,7 @@
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K36">
         <v>0.609375</v>
@@ -2188,16 +2164,16 @@
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="K37">
-        <v>0.5950920245398773</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="L37">
-        <v>194</v>
+        <v>13</v>
       </c>
       <c r="M37">
-        <v>208</v>
+        <v>14</v>
       </c>
       <c r="N37">
         <v>0.93</v>
@@ -2209,7 +2185,7 @@
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>132</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -2223,13 +2199,13 @@
         <v>13</v>
       </c>
       <c r="M38">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N38">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="O38">
-        <v>0.06999999999999995</v>
+        <v>0.13</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
@@ -2243,25 +2219,25 @@
         <v>55</v>
       </c>
       <c r="K39">
-        <v>0.5909090909090909</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L39">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M39">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N39">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -2269,13 +2245,13 @@
         <v>56</v>
       </c>
       <c r="K40">
-        <v>0.5833333333333334</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="L40">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M40">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2287,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -2295,25 +2271,25 @@
         <v>57</v>
       </c>
       <c r="K41">
-        <v>0.5769230769230769</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L41">
+        <v>20</v>
+      </c>
+      <c r="M41">
+        <v>20</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
         <v>15</v>
-      </c>
-      <c r="M41">
-        <v>15</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>11</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -2321,13 +2297,13 @@
         <v>58</v>
       </c>
       <c r="K42">
-        <v>0.5714285714285714</v>
+        <v>0.5705882352941176</v>
       </c>
       <c r="L42">
-        <v>20</v>
+        <v>194</v>
       </c>
       <c r="M42">
-        <v>20</v>
+        <v>194</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2339,7 +2315,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>15</v>
+        <v>146</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -4892,7 +4868,7 @@
     </row>
     <row r="141" spans="10:17">
       <c r="J141" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K141">
         <v>0.1903989620499514</v>
@@ -5048,7 +5024,7 @@
     </row>
     <row r="147" spans="10:17">
       <c r="J147" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K147">
         <v>0.1790763430725731</v>
